--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja7.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja7.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t xml:space="preserve">I N F O R M E   E S T A D I S T I C O</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Distrito:</t>
   </si>
   <si>
-    <t xml:space="preserve">56</t>
+    <t xml:space="preserve">34</t>
   </si>
   <si>
     <t xml:space="preserve">VI.-</t>
@@ -77,133 +77,124 @@
     <t xml:space="preserve">ASUNTOS DE JURISDICCION VOLUNTARIA (FRACC. X)</t>
   </si>
   <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE LAS CONTROVERSIAS RELATIVAS A LOS CONTRATOS DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASOCIACION O APROVECHAMIENTO DE TIERRAS EJIDALES A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUE SE REFIERE EL ART. 45 DE LA LEY AGRARIA (FRACC. XI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE LA REVERSION A QUE SE REFIERE EL ART. 97 DE LA LEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGRARIA (FRACC. XII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE LA EJECUCION DE:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOS CONVENIOS A QUE SE REFIERE LA FRACC.VI DEL ART.185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE LA LEY AGRARIA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOS LAUDOS ARBITRALES EN MATERIA AGRARIA, PREVIA DETERMINACION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE QUE SE ENCUENTREN APEGADOS A LAS DISPOSICIONES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEGALES APLICABLES (FRACC.XIII)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE LOS DEMAS ASUNTOS QUE DETERMINEN LAS LEYES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(FRACC. XIV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECONOCIMIENTO Y TITULACION DE BIENES COMUNALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(L.F.R.A.)  (ART. IV TRANSIT.  L.O.T.A. FRACC. I)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIVACION DE DERECHOS AGRARIOS (L.F.R.A.) (ART. V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSITORIO L.O.T.A.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INCONFORMIDADES (L.F.R.A.)(ART. V TRANSIT.  L.O.T.A.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OTROS ASUNTOS CONTENIDOS EN LA LEGISLACION AGRARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTERIOR (CONFLICTOS POR LA POSESION Y GOCE DE UNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNIDAD DE DOTACION, SUSPENSION DE DERECHOS AGRARIOS,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columna de Verificación de Datos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ETC...) (L.F.R.A.) (ART. V TRANSIT.  L.O.T.A.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTALES:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE LAS CONTROVERSIAS RELATIVAS A LOS CONTRATOS DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASOCIACION O APROVECHAMIENTO DE TIERRAS EJIDALES A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUE SE REFIERE EL ART. 45 DE LA LEY AGRARIA (FRACC. XI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE LA REVERSION A QUE SE REFIERE EL ART. 97 DE LA LEY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGRARIA (FRACC. XII)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE LA EJECUCION DE:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOS CONVENIOS A QUE SE REFIERE LA FRACC.VI DEL ART.185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE LA LEY AGRARIA.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOS LAUDOS ARBITRALES EN MATERIA AGRARIA, PREVIA DETERMINACION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE QUE SE ENCUENTREN APEGADOS A LAS DISPOSICIONES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEGALES APLICABLES (FRACC.XIII)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE LOS DEMAS ASUNTOS QUE DETERMINEN LAS LEYES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(FRACC. XIV)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECONOCIMIENTO Y TITULACION DE BIENES COMUNALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(L.F.R.A.)  (ART. IV TRANSIT.  L.O.T.A. FRACC. I)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRIVACION DE DERECHOS AGRARIOS (L.F.R.A.) (ART. V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRANSITORIO L.O.T.A.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INCONFORMIDADES (L.F.R.A.)(ART. V TRANSIT.  L.O.T.A.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTROS ASUNTOS CONTENIDOS EN LA LEGISLACION AGRARIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANTERIOR (CONFLICTOS POR LA POSESION Y GOCE DE UNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNIDAD DE DOTACION, SUSPENSION DE DERECHOS AGRARIOS,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Columna de Verificación de Datos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETC...) (L.F.R.A.) (ART. V TRANSIT.  L.O.T.A.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTALES:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEBRERO</t>
+    <t xml:space="preserve">DICIEMBRE</t>
   </si>
   <si>
     <t xml:space="preserve">HOJA 7</t>
@@ -940,20 +931,22 @@
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="O15" s="1"/>
       <c r="P15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="R15"/>
       <c r="S15"/>
@@ -1445,9 +1438,7 @@
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37"/>
-      <c r="H37" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -1455,9 +1446,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
-      <c r="P37" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="P37" s="1"/>
       <c r="Q37"/>
       <c r="R37"/>
       <c r="S37"/>
@@ -1506,10 +1495,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
         <v>43</v>
-      </c>
-      <c r="B40" t="s">
-        <v>44</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
@@ -1532,7 +1521,7 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41"/>
       <c r="D41"/>
@@ -1596,7 +1585,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
         <v>46</v>
@@ -1898,10 +1887,10 @@
       <c r="F57"/>
       <c r="G57"/>
       <c r="H57" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I57" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="J57" t="s">
         <v>56</v>
@@ -1916,16 +1905,16 @@
         <v>56</v>
       </c>
       <c r="N57" t="s">
+        <v>21</v>
+      </c>
+      <c r="O57" t="s">
         <v>56</v>
       </c>
-      <c r="O57" t="s">
-        <v>21</v>
-      </c>
       <c r="P57" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="Q57" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R57"/>
       <c r="S57"/>
@@ -1986,31 +1975,31 @@
         <v>58</v>
       </c>
       <c r="I60" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="J60" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="K60" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="L60" t="s">
         <v>56</v>
       </c>
       <c r="M60" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N60" t="s">
+        <v>21</v>
+      </c>
+      <c r="O60" t="s">
         <v>56</v>
       </c>
-      <c r="O60" t="s">
-        <v>61</v>
-      </c>
       <c r="P60" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="Q60" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R60"/>
       <c r="S60"/>
@@ -2064,10 +2053,10 @@
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G63" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H63"/>
       <c r="I63"/>
@@ -2077,7 +2066,7 @@
       <c r="M63"/>
       <c r="N63"/>
       <c r="O63" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="P63"/>
       <c r="Q63"/>
@@ -2114,38 +2103,38 @@
       <c r="F65"/>
       <c r="G65"/>
       <c r="H65" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I65" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J65" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K65" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L65" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M65" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N65" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O65" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="P65" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q65" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R65"/>
       <c r="S65" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66">
@@ -2157,34 +2146,34 @@
       <c r="F66"/>
       <c r="G66"/>
       <c r="H66" t="s">
+        <v>64</v>
+      </c>
+      <c r="I66" t="s">
+        <v>65</v>
+      </c>
+      <c r="J66" t="s">
+        <v>66</v>
+      </c>
+      <c r="K66" t="s">
         <v>67</v>
       </c>
-      <c r="I66" t="s">
+      <c r="L66" t="s">
         <v>68</v>
       </c>
-      <c r="J66" t="s">
+      <c r="M66" t="s">
         <v>69</v>
       </c>
-      <c r="K66" t="s">
+      <c r="N66" t="s">
         <v>70</v>
       </c>
-      <c r="L66" t="s">
+      <c r="O66" t="s">
         <v>71</v>
       </c>
-      <c r="M66" t="s">
+      <c r="P66" t="s">
         <v>72</v>
       </c>
-      <c r="N66" t="s">
+      <c r="Q66" t="s">
         <v>73</v>
-      </c>
-      <c r="O66" t="s">
-        <v>74</v>
-      </c>
-      <c r="P66" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>76</v>
       </c>
       <c r="R66"/>
       <c r="S66"/>
@@ -2201,31 +2190,31 @@
         <v>58</v>
       </c>
       <c r="I67" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="K67" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="L67" t="s">
         <v>56</v>
       </c>
       <c r="M67" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N67" t="s">
+        <v>21</v>
+      </c>
+      <c r="O67" t="s">
         <v>56</v>
       </c>
-      <c r="O67" t="s">
-        <v>61</v>
-      </c>
       <c r="P67" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="Q67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R67"/>
       <c r="S67"/>

--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja7.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja7.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t xml:space="preserve">I N F O R M E   E S T A D I S T I C O</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Distrito:</t>
   </si>
   <si>
-    <t xml:space="preserve">34</t>
+    <t xml:space="preserve">H01_01</t>
   </si>
   <si>
     <t xml:space="preserve">VI.-</t>
@@ -71,16 +71,58 @@
     <t xml:space="preserve">ENTIDADES MENCIONADAS (FRACC. IX)</t>
   </si>
   <si>
+    <t xml:space="preserve">H07_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_085</t>
+  </si>
+  <si>
     <t xml:space="preserve">10</t>
   </si>
   <si>
     <t xml:space="preserve">ASUNTOS DE JURISDICCION VOLUNTARIA (FRACC. X)</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74</t>
+    <t xml:space="preserve">H07_012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_096</t>
   </si>
   <si>
     <t xml:space="preserve">11</t>
@@ -95,6 +137,33 @@
     <t xml:space="preserve">QUE SE REFIERE EL ART. 45 DE LA LEY AGRARIA (FRACC. XI)</t>
   </si>
   <si>
+    <t xml:space="preserve">H07_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_034</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_044</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_087</t>
+  </si>
+  <si>
     <t xml:space="preserve">12</t>
   </si>
   <si>
@@ -104,6 +173,33 @@
     <t xml:space="preserve">AGRARIA (FRACC. XII)</t>
   </si>
   <si>
+    <t xml:space="preserve">H07_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_035</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_088</t>
+  </si>
+  <si>
     <t xml:space="preserve">13</t>
   </si>
   <si>
@@ -119,6 +215,33 @@
     <t xml:space="preserve">DE LA LEY AGRARIA.</t>
   </si>
   <si>
+    <t xml:space="preserve">H07_004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_089</t>
+  </si>
+  <si>
     <t xml:space="preserve">b)</t>
   </si>
   <si>
@@ -131,6 +254,33 @@
     <t xml:space="preserve">LEGALES APLICABLES (FRACC.XIII)</t>
   </si>
   <si>
+    <t xml:space="preserve">H07_005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_090</t>
+  </si>
+  <si>
     <t xml:space="preserve">14</t>
   </si>
   <si>
@@ -140,6 +290,33 @@
     <t xml:space="preserve">(FRACC. XIV)</t>
   </si>
   <si>
+    <t xml:space="preserve">H07_006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_091</t>
+  </si>
+  <si>
     <t xml:space="preserve">15</t>
   </si>
   <si>
@@ -149,6 +326,33 @@
     <t xml:space="preserve">(L.F.R.A.)  (ART. IV TRANSIT.  L.O.T.A. FRACC. I)</t>
   </si>
   <si>
+    <t xml:space="preserve">H07_007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_092</t>
+  </si>
+  <si>
     <t xml:space="preserve">16</t>
   </si>
   <si>
@@ -158,12 +362,66 @@
     <t xml:space="preserve">TRANSITORIO L.O.T.A.)</t>
   </si>
   <si>
+    <t xml:space="preserve">H07_008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_093</t>
+  </si>
+  <si>
     <t xml:space="preserve">17</t>
   </si>
   <si>
     <t xml:space="preserve">INCONFORMIDADES (L.F.R.A.)(ART. V TRANSIT.  L.O.T.A.)</t>
   </si>
   <si>
+    <t xml:space="preserve">H07_009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_041</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_094</t>
+  </si>
+  <si>
     <t xml:space="preserve">18</t>
   </si>
   <si>
@@ -182,25 +440,49 @@
     <t xml:space="preserve">ETC...) (L.F.R.A.) (ART. V TRANSIT.  L.O.T.A.)</t>
   </si>
   <si>
+    <t xml:space="preserve">H07_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_032</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H07_095</t>
+  </si>
+  <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">TOTALES:</t>
   </si>
   <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DICIEMBRE</t>
+    <t xml:space="preserve">H01_03</t>
   </si>
   <si>
     <t xml:space="preserve">HOJA 7</t>
   </si>
   <si>
     <t xml:space="preserve">OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERIFICAR</t>
   </si>
   <si>
     <t xml:space="preserve">Estos totales deben coincidir con los resultados de la Hoja 5</t>
@@ -863,15 +1145,33 @@
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="Q12"/>
       <c r="R12"/>
       <c r="S12"/>
@@ -920,10 +1220,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -932,21 +1232,27 @@
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="K15"/>
       <c r="L15"/>
-      <c r="M15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="N15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O15" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="P15" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="R15"/>
       <c r="S15"/>
@@ -974,10 +1280,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -1000,7 +1306,7 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -1023,22 +1329,40 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="Q19"/>
       <c r="R19"/>
       <c r="S19"/>
@@ -1087,10 +1411,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -1113,22 +1437,40 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="Q23"/>
       <c r="R23"/>
       <c r="S23"/>
@@ -1177,10 +1519,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -1223,10 +1565,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -1249,22 +1591,40 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
+      <c r="H29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="Q29"/>
       <c r="R29"/>
       <c r="S29"/>
@@ -1292,10 +1652,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -1318,7 +1678,7 @@
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -1341,22 +1701,40 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="Q33"/>
       <c r="R33"/>
       <c r="S33"/>
@@ -1405,10 +1783,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -1431,22 +1809,40 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="Q37"/>
       <c r="R37"/>
       <c r="S37"/>
@@ -1495,10 +1891,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
@@ -1521,22 +1917,40 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
       <c r="G41"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
+      <c r="H41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="Q41"/>
       <c r="R41"/>
       <c r="S41"/>
@@ -1585,10 +1999,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
@@ -1611,22 +2025,40 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
+      <c r="H45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="Q45"/>
       <c r="R45"/>
       <c r="S45"/>
@@ -1675,25 +2107,43 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48"/>
       <c r="G48"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
+      <c r="H48" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="Q48"/>
       <c r="R48"/>
       <c r="S48"/>
@@ -1742,10 +2192,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
@@ -1768,7 +2218,7 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="C52"/>
       <c r="D52"/>
@@ -1791,7 +2241,7 @@
     <row r="53">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="C53"/>
       <c r="D53"/>
@@ -1810,28 +2260,46 @@
       <c r="Q53"/>
       <c r="R53"/>
       <c r="S53" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54">
       <c r="A54"/>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="C54"/>
       <c r="D54"/>
       <c r="E54"/>
       <c r="F54"/>
       <c r="G54"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
+      <c r="H54" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="Q54"/>
       <c r="R54"/>
       <c r="S54"/>
@@ -1887,34 +2355,34 @@
       <c r="F57"/>
       <c r="G57"/>
       <c r="H57" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="I57" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="J57" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="K57" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="L57" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="M57" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="N57" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="O57" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="P57" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="Q57" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="R57"/>
       <c r="S57"/>
@@ -1967,39 +2435,39 @@
       <c r="C60"/>
       <c r="D60"/>
       <c r="E60" t="s">
-        <v>57</v>
+        <v>152</v>
       </c>
       <c r="F60"/>
       <c r="G60"/>
       <c r="H60" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="I60" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="J60" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="K60" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="L60" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="M60" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="N60" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="O60" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="P60" t="s">
-        <v>27</v>
+        <v>151</v>
       </c>
       <c r="Q60" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="R60"/>
       <c r="S60"/>
@@ -2053,7 +2521,7 @@
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="G63" t="n">
         <v>2024</v>
@@ -2066,7 +2534,7 @@
       <c r="M63"/>
       <c r="N63"/>
       <c r="O63" t="s">
-        <v>61</v>
+        <v>154</v>
       </c>
       <c r="P63"/>
       <c r="Q63"/>
@@ -2103,38 +2571,38 @@
       <c r="F65"/>
       <c r="G65"/>
       <c r="H65" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="I65" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="J65" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="K65" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="L65" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="M65" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="N65" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="O65" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="P65" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="Q65" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="R65"/>
       <c r="S65" t="s">
-        <v>63</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66">
@@ -2146,34 +2614,34 @@
       <c r="F66"/>
       <c r="G66"/>
       <c r="H66" t="s">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="I66" t="s">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="J66" t="s">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="K66" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="L66" t="s">
-        <v>68</v>
+        <v>162</v>
       </c>
       <c r="M66" t="s">
-        <v>69</v>
+        <v>163</v>
       </c>
       <c r="N66" t="s">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="O66" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="P66" t="s">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="Q66" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="R66"/>
       <c r="S66"/>
@@ -2187,34 +2655,34 @@
       <c r="F67"/>
       <c r="G67"/>
       <c r="H67" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="I67" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="J67" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="K67" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="L67" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="M67" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="N67" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="O67" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="P67" t="s">
-        <v>27</v>
+        <v>151</v>
       </c>
       <c r="Q67" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="R67"/>
       <c r="S67"/>

--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja7.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja7.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t xml:space="preserve">I N F O R M E   E S T A D I S T I C O</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Distrito:</t>
   </si>
   <si>
-    <t xml:space="preserve">H01_01</t>
+    <t xml:space="preserve">34</t>
   </si>
   <si>
     <t xml:space="preserve">VI.-</t>
@@ -71,58 +71,16 @@
     <t xml:space="preserve">ENTIDADES MENCIONADAS (FRACC. IX)</t>
   </si>
   <si>
-    <t xml:space="preserve">H07_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_043</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_085</t>
-  </si>
-  <si>
     <t xml:space="preserve">10</t>
   </si>
   <si>
     <t xml:space="preserve">ASUNTOS DE JURISDICCION VOLUNTARIA (FRACC. X)</t>
   </si>
   <si>
-    <t xml:space="preserve">H07_012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_096</t>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74</t>
   </si>
   <si>
     <t xml:space="preserve">11</t>
@@ -137,33 +95,6 @@
     <t xml:space="preserve">QUE SE REFIERE EL ART. 45 DE LA LEY AGRARIA (FRACC. XI)</t>
   </si>
   <si>
-    <t xml:space="preserve">H07_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_087</t>
-  </si>
-  <si>
     <t xml:space="preserve">12</t>
   </si>
   <si>
@@ -173,33 +104,6 @@
     <t xml:space="preserve">AGRARIA (FRACC. XII)</t>
   </si>
   <si>
-    <t xml:space="preserve">H07_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_088</t>
-  </si>
-  <si>
     <t xml:space="preserve">13</t>
   </si>
   <si>
@@ -215,33 +119,6 @@
     <t xml:space="preserve">DE LA LEY AGRARIA.</t>
   </si>
   <si>
-    <t xml:space="preserve">H07_004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_046</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_089</t>
-  </si>
-  <si>
     <t xml:space="preserve">b)</t>
   </si>
   <si>
@@ -254,33 +131,6 @@
     <t xml:space="preserve">LEGALES APLICABLES (FRACC.XIII)</t>
   </si>
   <si>
-    <t xml:space="preserve">H07_005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_090</t>
-  </si>
-  <si>
     <t xml:space="preserve">14</t>
   </si>
   <si>
@@ -290,33 +140,6 @@
     <t xml:space="preserve">(FRACC. XIV)</t>
   </si>
   <si>
-    <t xml:space="preserve">H07_006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_091</t>
-  </si>
-  <si>
     <t xml:space="preserve">15</t>
   </si>
   <si>
@@ -326,33 +149,6 @@
     <t xml:space="preserve">(L.F.R.A.)  (ART. IV TRANSIT.  L.O.T.A. FRACC. I)</t>
   </si>
   <si>
-    <t xml:space="preserve">H07_007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_092</t>
-  </si>
-  <si>
     <t xml:space="preserve">16</t>
   </si>
   <si>
@@ -362,66 +158,12 @@
     <t xml:space="preserve">TRANSITORIO L.O.T.A.)</t>
   </si>
   <si>
-    <t xml:space="preserve">H07_008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_093</t>
-  </si>
-  <si>
     <t xml:space="preserve">17</t>
   </si>
   <si>
     <t xml:space="preserve">INCONFORMIDADES (L.F.R.A.)(ART. V TRANSIT.  L.O.T.A.)</t>
   </si>
   <si>
-    <t xml:space="preserve">H07_009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_094</t>
-  </si>
-  <si>
     <t xml:space="preserve">18</t>
   </si>
   <si>
@@ -440,49 +182,25 @@
     <t xml:space="preserve">ETC...) (L.F.R.A.) (ART. V TRANSIT.  L.O.T.A.)</t>
   </si>
   <si>
-    <t xml:space="preserve">H07_010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_042</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H07_095</t>
-  </si>
-  <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">TOTALES:</t>
   </si>
   <si>
-    <t xml:space="preserve">H01_03</t>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DICIEMBRE</t>
   </si>
   <si>
     <t xml:space="preserve">HOJA 7</t>
   </si>
   <si>
     <t xml:space="preserve">OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VERIFICAR</t>
   </si>
   <si>
     <t xml:space="preserve">Estos totales deben coincidir con los resultados de la Hoja 5</t>
@@ -1145,33 +863,15 @@
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
-      <c r="H12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
       <c r="Q12"/>
       <c r="R12"/>
       <c r="S12"/>
@@ -1220,10 +920,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -1232,27 +932,21 @@
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="J15" s="1"/>
       <c r="K15"/>
       <c r="L15"/>
-      <c r="M15" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="M15" s="1"/>
       <c r="N15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="O15" s="1"/>
       <c r="P15" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="R15"/>
       <c r="S15"/>
@@ -1280,10 +974,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -1306,7 +1000,7 @@
     <row r="18">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -1329,40 +1023,22 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
-      <c r="H19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
       <c r="Q19"/>
       <c r="R19"/>
       <c r="S19"/>
@@ -1411,10 +1087,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -1437,40 +1113,22 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="H23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
       <c r="Q23"/>
       <c r="R23"/>
       <c r="S23"/>
@@ -1519,10 +1177,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -1565,10 +1223,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -1591,40 +1249,22 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
-      <c r="H29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
       <c r="Q29"/>
       <c r="R29"/>
       <c r="S29"/>
@@ -1652,10 +1292,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -1678,7 +1318,7 @@
     <row r="32">
       <c r="A32"/>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -1701,40 +1341,22 @@
     <row r="33">
       <c r="A33"/>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
-      <c r="H33" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
       <c r="Q33"/>
       <c r="R33"/>
       <c r="S33"/>
@@ -1783,10 +1405,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -1809,40 +1431,22 @@
     <row r="37">
       <c r="A37"/>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37"/>
-      <c r="H37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
       <c r="Q37"/>
       <c r="R37"/>
       <c r="S37"/>
@@ -1891,10 +1495,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
@@ -1917,40 +1521,22 @@
     <row r="41">
       <c r="A41"/>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41"/>
       <c r="F41"/>
       <c r="G41"/>
-      <c r="H41" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
       <c r="Q41"/>
       <c r="R41"/>
       <c r="S41"/>
@@ -1999,10 +1585,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
@@ -2025,40 +1611,22 @@
     <row r="45">
       <c r="A45"/>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45"/>
-      <c r="H45" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
       <c r="Q45"/>
       <c r="R45"/>
       <c r="S45"/>
@@ -2107,43 +1675,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48"/>
       <c r="G48"/>
-      <c r="H48" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
       <c r="Q48"/>
       <c r="R48"/>
       <c r="S48"/>
@@ -2192,10 +1742,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
@@ -2218,7 +1768,7 @@
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="C52"/>
       <c r="D52"/>
@@ -2241,7 +1791,7 @@
     <row r="53">
       <c r="A53"/>
       <c r="B53" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="C53"/>
       <c r="D53"/>
@@ -2260,46 +1810,28 @@
       <c r="Q53"/>
       <c r="R53"/>
       <c r="S53" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54">
       <c r="A54"/>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="C54"/>
       <c r="D54"/>
       <c r="E54"/>
       <c r="F54"/>
       <c r="G54"/>
-      <c r="H54" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="M54" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>150</v>
-      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
       <c r="Q54"/>
       <c r="R54"/>
       <c r="S54"/>
@@ -2355,34 +1887,34 @@
       <c r="F57"/>
       <c r="G57"/>
       <c r="H57" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="I57" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="J57" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="K57" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="L57" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="M57" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="N57" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="O57" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="P57" t="s">
-        <v>151</v>
+        <v>15</v>
       </c>
       <c r="Q57" t="s">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="R57"/>
       <c r="S57"/>
@@ -2435,39 +1967,39 @@
       <c r="C60"/>
       <c r="D60"/>
       <c r="E60" t="s">
-        <v>152</v>
+        <v>57</v>
       </c>
       <c r="F60"/>
       <c r="G60"/>
       <c r="H60" t="s">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="I60" t="s">
-        <v>151</v>
+        <v>59</v>
       </c>
       <c r="J60" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="K60" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="L60" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="M60" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="N60" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="O60" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="P60" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="Q60" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="R60"/>
       <c r="S60"/>
@@ -2521,7 +2053,7 @@
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>153</v>
+        <v>60</v>
       </c>
       <c r="G63" t="n">
         <v>2024</v>
@@ -2534,7 +2066,7 @@
       <c r="M63"/>
       <c r="N63"/>
       <c r="O63" t="s">
-        <v>154</v>
+        <v>61</v>
       </c>
       <c r="P63"/>
       <c r="Q63"/>
@@ -2571,38 +2103,38 @@
       <c r="F65"/>
       <c r="G65"/>
       <c r="H65" t="s">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="I65" t="s">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="J65" t="s">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="K65" t="s">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="L65" t="s">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="M65" t="s">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="N65" t="s">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="O65" t="s">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="P65" t="s">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="Q65" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="R65"/>
       <c r="S65" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66">
@@ -2614,34 +2146,34 @@
       <c r="F66"/>
       <c r="G66"/>
       <c r="H66" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="I66" t="s">
-        <v>159</v>
+        <v>65</v>
       </c>
       <c r="J66" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="K66" t="s">
-        <v>161</v>
+        <v>67</v>
       </c>
       <c r="L66" t="s">
-        <v>162</v>
+        <v>68</v>
       </c>
       <c r="M66" t="s">
-        <v>163</v>
+        <v>69</v>
       </c>
       <c r="N66" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
       <c r="O66" t="s">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="P66" t="s">
-        <v>166</v>
+        <v>72</v>
       </c>
       <c r="Q66" t="s">
-        <v>167</v>
+        <v>73</v>
       </c>
       <c r="R66"/>
       <c r="S66"/>
@@ -2655,34 +2187,34 @@
       <c r="F67"/>
       <c r="G67"/>
       <c r="H67" t="s">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="I67" t="s">
-        <v>151</v>
+        <v>59</v>
       </c>
       <c r="J67" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="K67" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="L67" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="M67" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="N67" t="s">
-        <v>151</v>
+        <v>21</v>
       </c>
       <c r="O67" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="P67" t="s">
-        <v>151</v>
+        <v>27</v>
       </c>
       <c r="Q67" t="s">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="R67"/>
       <c r="S67"/>

--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja7.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja7.xlsx
@@ -194,7 +194,7 @@
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">DICIEMBRE</t>
+    <t xml:space="preserve">Diciembre</t>
   </si>
   <si>
     <t xml:space="preserve">HOJA 7</t>
